--- a/clase10/tpIntB/datos/datos.xlsx
+++ b/clase10/tpIntB/datos/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datos\zalo\cursos\argentinaPrograma\javaInicial\clase10\tpIntB\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D5F660-6A17-4CEC-8711-280D330A19A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DCE62C-1AE9-4EA2-88CA-E5702D6D67F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,16 +1843,16 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,16 +1860,16 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E83" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,16 +1877,16 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1894,16 +1894,16 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E85" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,16 +1911,16 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,16 +1928,16 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C87" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E87" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1945,13 +1945,13 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -1962,16 +1962,16 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C89" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,16 +1979,16 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C90" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1996,16 +1996,16 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BECDD5-4DBF-4F19-8621-0412C57BCBD8}">
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+    <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>

--- a/clase10/tpIntB/datos/datos.xlsx
+++ b/clase10/tpIntB/datos/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datos\zalo\cursos\argentinaPrograma\javaInicial\clase10\tpIntB\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DCE62C-1AE9-4EA2-88CA-E5702D6D67F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1359AA1-8975-47EC-B399-2A7C64E49132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="32">
   <si>
     <t>fecha</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>totales</t>
   </si>
 </sst>
 </file>
@@ -451,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,10 +3721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BECDD5-4DBF-4F19-8621-0412C57BCBD8}">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3729,7 +3735,7 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3748,8 +3754,18 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1">
+        <f>SUM(H2:H191)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3764,8 +3780,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3780,8 +3799,11 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3796,8 +3818,11 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3812,8 +3837,11 @@
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3828,8 +3856,11 @@
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3844,8 +3875,11 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3860,8 +3894,11 @@
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3876,8 +3913,11 @@
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3892,8 +3932,11 @@
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3908,8 +3951,11 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3924,8 +3970,11 @@
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3940,8 +3989,11 @@
       <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3956,8 +4008,11 @@
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3972,8 +4027,11 @@
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3988,8 +4046,11 @@
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -4004,8 +4065,11 @@
       <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4020,8 +4084,11 @@
       <c r="F18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4036,8 +4103,11 @@
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -4052,8 +4122,11 @@
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4068,8 +4141,11 @@
       <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4084,8 +4160,11 @@
       <c r="F22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4100,8 +4179,11 @@
       <c r="F23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4116,8 +4198,11 @@
       <c r="F24" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4132,8 +4217,11 @@
       <c r="F25" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -4148,8 +4236,11 @@
       <c r="F26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -4164,8 +4255,11 @@
       <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4180,8 +4274,11 @@
       <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -4196,8 +4293,11 @@
       <c r="F29" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4212,8 +4312,11 @@
       <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -4228,8 +4331,11 @@
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4244,8 +4350,11 @@
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4260,8 +4369,11 @@
       <c r="F33" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -4276,8 +4388,11 @@
       <c r="F34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -4292,8 +4407,11 @@
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -4308,8 +4426,11 @@
       <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -4324,8 +4445,11 @@
       <c r="F37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -4340,8 +4464,11 @@
       <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -4356,8 +4483,11 @@
       <c r="F39" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -4372,8 +4502,11 @@
       <c r="F40" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -4388,8 +4521,11 @@
       <c r="F41" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -4404,8 +4540,11 @@
       <c r="F42" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -4420,8 +4559,11 @@
       <c r="F43" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -4436,8 +4578,11 @@
       <c r="F44" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -4452,8 +4597,11 @@
       <c r="F45" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -4468,8 +4616,11 @@
       <c r="F46" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -4484,8 +4635,11 @@
       <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -4500,8 +4654,11 @@
       <c r="F48" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -4516,8 +4673,11 @@
       <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -4532,8 +4692,11 @@
       <c r="F50" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -4548,8 +4711,11 @@
       <c r="F51" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -4564,8 +4730,11 @@
       <c r="F52" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -4580,8 +4749,11 @@
       <c r="F53" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -4596,8 +4768,11 @@
       <c r="F54" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -4612,8 +4787,11 @@
       <c r="F55" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -4628,8 +4806,11 @@
       <c r="F56" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -4644,8 +4825,11 @@
       <c r="F57" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -4660,8 +4844,11 @@
       <c r="F58" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -4676,8 +4863,11 @@
       <c r="F59" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -4692,8 +4882,11 @@
       <c r="F60" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -4708,8 +4901,11 @@
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -4724,8 +4920,11 @@
       <c r="F62" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -4740,8 +4939,11 @@
       <c r="F63" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -4756,8 +4958,11 @@
       <c r="F64" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -4772,8 +4977,11 @@
       <c r="F65" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7</v>
       </c>
@@ -4788,8 +4996,11 @@
       <c r="F66" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7</v>
       </c>
@@ -4804,8 +5015,11 @@
       <c r="F67" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -4820,8 +5034,11 @@
       <c r="F68" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7</v>
       </c>
@@ -4836,8 +5053,11 @@
       <c r="F69" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -4852,8 +5072,11 @@
       <c r="F70" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -4868,8 +5091,11 @@
       <c r="F71" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -4884,8 +5110,11 @@
       <c r="F72" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
@@ -4900,8 +5129,11 @@
       <c r="F73" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -4916,8 +5148,11 @@
       <c r="F74" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8</v>
       </c>
@@ -4932,8 +5167,11 @@
       <c r="F75" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8</v>
       </c>
@@ -4948,8 +5186,11 @@
       <c r="F76" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
@@ -4964,8 +5205,11 @@
       <c r="F77" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8</v>
       </c>
@@ -4980,8 +5224,11 @@
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
@@ -4996,8 +5243,11 @@
       <c r="F79" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>8</v>
       </c>
@@ -5012,8 +5262,11 @@
       <c r="F80" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8</v>
       </c>
@@ -5028,13 +5281,16 @@
       <c r="F81" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>29</v>
@@ -5042,15 +5298,18 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>29</v>
@@ -5058,15 +5317,18 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
@@ -5074,15 +5336,18 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -5090,15 +5355,18 @@
         <v>29</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
@@ -5106,15 +5374,18 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>29</v>
@@ -5122,15 +5393,18 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -5138,15 +5412,18 @@
         <v>29</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>29</v>
@@ -5154,15 +5431,18 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -5170,15 +5450,18 @@
         <v>29</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
@@ -5186,10 +5469,13 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10</v>
       </c>
@@ -5204,8 +5490,11 @@
       <c r="F92" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>10</v>
       </c>
@@ -5220,8 +5509,11 @@
       <c r="F93" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10</v>
       </c>
@@ -5236,8 +5528,11 @@
       <c r="F94" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10</v>
       </c>
@@ -5252,8 +5547,11 @@
       <c r="F95" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10</v>
       </c>
@@ -5268,8 +5566,11 @@
       <c r="F96" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -5284,8 +5585,11 @@
       <c r="F97" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10</v>
       </c>
@@ -5300,8 +5604,11 @@
       <c r="F98" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10</v>
       </c>
@@ -5316,8 +5623,11 @@
       <c r="F99" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10</v>
       </c>
@@ -5332,8 +5642,11 @@
       <c r="F100" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
@@ -5348,8 +5661,11 @@
       <c r="F101" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
@@ -5364,8 +5680,11 @@
       <c r="F102" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>11</v>
       </c>
@@ -5380,8 +5699,11 @@
       <c r="F103" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11</v>
       </c>
@@ -5396,8 +5718,11 @@
       <c r="F104" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>11</v>
       </c>
@@ -5412,8 +5737,11 @@
       <c r="F105" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>11</v>
       </c>
@@ -5428,8 +5756,11 @@
       <c r="F106" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>11</v>
       </c>
@@ -5444,8 +5775,11 @@
       <c r="F107" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11</v>
       </c>
@@ -5460,8 +5794,11 @@
       <c r="F108" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>11</v>
       </c>
@@ -5476,8 +5813,11 @@
       <c r="F109" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11</v>
       </c>
@@ -5492,8 +5832,11 @@
       <c r="F110" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>11</v>
       </c>
@@ -5508,8 +5851,11 @@
       <c r="F111" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>12</v>
       </c>
@@ -5524,8 +5870,11 @@
       <c r="F112" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>12</v>
       </c>
@@ -5540,8 +5889,11 @@
       <c r="F113" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>12</v>
       </c>
@@ -5556,8 +5908,11 @@
       <c r="F114" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>12</v>
       </c>
@@ -5572,8 +5927,11 @@
       <c r="F115" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>12</v>
       </c>
@@ -5588,8 +5946,11 @@
       <c r="F116" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>12</v>
       </c>
@@ -5604,8 +5965,11 @@
       <c r="F117" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>12</v>
       </c>
@@ -5620,8 +5984,11 @@
       <c r="F118" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>12</v>
       </c>
@@ -5636,8 +6003,11 @@
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12</v>
       </c>
@@ -5652,8 +6022,11 @@
       <c r="F120" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12</v>
       </c>
@@ -5668,8 +6041,11 @@
       <c r="F121" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>13</v>
       </c>
@@ -5684,8 +6060,11 @@
       <c r="F122" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>13</v>
       </c>
@@ -5700,8 +6079,11 @@
       <c r="F123" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>13</v>
       </c>
@@ -5716,8 +6098,11 @@
       <c r="F124" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>13</v>
       </c>
@@ -5732,8 +6117,11 @@
       <c r="F125" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>13</v>
       </c>
@@ -5748,8 +6136,11 @@
       <c r="F126" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>13</v>
       </c>
@@ -5764,8 +6155,11 @@
       <c r="F127" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>13</v>
       </c>
@@ -5780,8 +6174,11 @@
       <c r="F128" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>13</v>
       </c>
@@ -5796,8 +6193,11 @@
       <c r="F129" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>13</v>
       </c>
@@ -5812,8 +6212,11 @@
       <c r="F130" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>13</v>
       </c>
@@ -5828,8 +6231,11 @@
       <c r="F131" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -5844,8 +6250,11 @@
       <c r="F132" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>14</v>
       </c>
@@ -5860,8 +6269,11 @@
       <c r="F133" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>14</v>
       </c>
@@ -5876,8 +6288,11 @@
       <c r="F134" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>14</v>
       </c>
@@ -5892,8 +6307,11 @@
       <c r="F135" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>14</v>
       </c>
@@ -5908,8 +6326,11 @@
       <c r="F136" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
       </c>
@@ -5924,8 +6345,11 @@
       <c r="F137" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>14</v>
       </c>
@@ -5940,8 +6364,11 @@
       <c r="F138" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14</v>
       </c>
@@ -5956,8 +6383,11 @@
       <c r="F139" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5972,8 +6402,11 @@
       <c r="F140" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5988,8 +6421,11 @@
       <c r="F141" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>15</v>
       </c>
@@ -6004,8 +6440,11 @@
       <c r="F142" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>15</v>
       </c>
@@ -6020,8 +6459,11 @@
       <c r="F143" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>15</v>
       </c>
@@ -6036,8 +6478,11 @@
       <c r="F144" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>15</v>
       </c>
@@ -6052,8 +6497,11 @@
       <c r="F145" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>15</v>
       </c>
@@ -6068,8 +6516,11 @@
       <c r="F146" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>15</v>
       </c>
@@ -6084,8 +6535,11 @@
       <c r="F147" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>15</v>
       </c>
@@ -6100,8 +6554,11 @@
       <c r="F148" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>15</v>
       </c>
@@ -6116,8 +6573,11 @@
       <c r="F149" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>15</v>
       </c>
@@ -6132,8 +6592,11 @@
       <c r="F150" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>15</v>
       </c>
@@ -6148,8 +6611,11 @@
       <c r="F151" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>16</v>
       </c>
@@ -6164,8 +6630,11 @@
       <c r="F152" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>16</v>
       </c>
@@ -6180,8 +6649,11 @@
       <c r="F153" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>16</v>
       </c>
@@ -6196,8 +6668,11 @@
       <c r="F154" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>16</v>
       </c>
@@ -6212,8 +6687,11 @@
       <c r="F155" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>16</v>
       </c>
@@ -6228,8 +6706,11 @@
       <c r="F156" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>16</v>
       </c>
@@ -6244,8 +6725,11 @@
       <c r="F157" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>16</v>
       </c>
@@ -6260,8 +6744,11 @@
       <c r="F158" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>16</v>
       </c>
@@ -6276,8 +6763,11 @@
       <c r="F159" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>16</v>
       </c>
@@ -6292,8 +6782,11 @@
       <c r="F160" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>16</v>
       </c>
@@ -6308,8 +6801,11 @@
       <c r="F161" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>17</v>
       </c>
@@ -6324,8 +6820,11 @@
       <c r="F162" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>17</v>
       </c>
@@ -6340,8 +6839,11 @@
       <c r="F163" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>17</v>
       </c>
@@ -6356,8 +6858,11 @@
       <c r="F164" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>17</v>
       </c>
@@ -6372,8 +6877,11 @@
       <c r="F165" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>17</v>
       </c>
@@ -6388,8 +6896,11 @@
       <c r="F166" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>17</v>
       </c>
@@ -6404,8 +6915,11 @@
       <c r="F167" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>17</v>
       </c>
@@ -6420,8 +6934,11 @@
       <c r="F168" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>17</v>
       </c>
@@ -6436,8 +6953,11 @@
       <c r="F169" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>17</v>
       </c>
@@ -6452,8 +6972,11 @@
       <c r="F170" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>17</v>
       </c>
@@ -6468,8 +6991,11 @@
       <c r="F171" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>18</v>
       </c>
@@ -6484,8 +7010,11 @@
       <c r="F172" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>18</v>
       </c>
@@ -6500,8 +7029,11 @@
       <c r="F173" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>18</v>
       </c>
@@ -6516,8 +7048,11 @@
       <c r="F174" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>18</v>
       </c>
@@ -6532,8 +7067,11 @@
       <c r="F175" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>18</v>
       </c>
@@ -6548,8 +7086,11 @@
       <c r="F176" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>18</v>
       </c>
@@ -6564,8 +7105,11 @@
       <c r="F177" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>18</v>
       </c>
@@ -6580,8 +7124,11 @@
       <c r="F178" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>18</v>
       </c>
@@ -6596,8 +7143,11 @@
       <c r="F179" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>18</v>
       </c>
@@ -6612,8 +7162,11 @@
       <c r="F180" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>18</v>
       </c>
@@ -6628,8 +7181,11 @@
       <c r="F181" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>19</v>
       </c>
@@ -6644,8 +7200,11 @@
       <c r="F182" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -6660,8 +7219,11 @@
       <c r="F183" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>19</v>
       </c>
@@ -6676,8 +7238,11 @@
       <c r="F184" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>19</v>
       </c>
@@ -6692,8 +7257,11 @@
       <c r="F185" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>19</v>
       </c>
@@ -6708,8 +7276,11 @@
       <c r="F186" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>19</v>
       </c>
@@ -6724,8 +7295,11 @@
       <c r="F187" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>19</v>
       </c>
@@ -6740,8 +7314,11 @@
       <c r="F188" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>19</v>
       </c>
@@ -6756,8 +7333,11 @@
       <c r="F189" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>19</v>
       </c>
@@ -6772,8 +7352,11 @@
       <c r="F190" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>19</v>
       </c>
@@ -6787,6 +7370,9 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6797,10 +7383,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F1A500-0087-40C5-942C-F0BE2CCB0489}">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6811,7 +7397,7 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6830,8 +7416,18 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1">
+        <f>SUM(H2:H191)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6846,8 +7442,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6862,8 +7461,11 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6878,8 +7480,11 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6894,8 +7499,11 @@
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6910,8 +7518,11 @@
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6926,8 +7537,11 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6942,8 +7556,11 @@
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6958,8 +7575,11 @@
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6974,8 +7594,11 @@
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6990,8 +7613,11 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -7006,8 +7632,11 @@
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7022,8 +7651,11 @@
       <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -7038,8 +7670,11 @@
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -7054,8 +7689,11 @@
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -7070,8 +7708,11 @@
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -7086,8 +7727,11 @@
       <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -7102,8 +7746,11 @@
       <c r="F18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -7118,8 +7765,11 @@
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -7134,8 +7784,11 @@
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7150,8 +7803,11 @@
       <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7166,8 +7822,11 @@
       <c r="F22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -7182,8 +7841,11 @@
       <c r="F23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -7198,8 +7860,11 @@
       <c r="F24" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7214,8 +7879,11 @@
       <c r="F25" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -7230,8 +7898,11 @@
       <c r="F26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -7246,8 +7917,11 @@
       <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -7262,8 +7936,11 @@
       <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -7278,8 +7955,11 @@
       <c r="F29" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -7294,8 +7974,11 @@
       <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -7310,8 +7993,11 @@
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -7326,8 +8012,11 @@
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -7342,8 +8031,11 @@
       <c r="F33" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -7358,8 +8050,11 @@
       <c r="F34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -7374,8 +8069,11 @@
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -7390,8 +8088,11 @@
       <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -7406,8 +8107,11 @@
       <c r="F37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -7422,8 +8126,11 @@
       <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -7438,8 +8145,11 @@
       <c r="F39" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -7454,8 +8164,11 @@
       <c r="F40" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -7470,8 +8183,11 @@
       <c r="F41" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -7486,8 +8202,11 @@
       <c r="F42" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -7502,8 +8221,11 @@
       <c r="F43" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -7518,8 +8240,11 @@
       <c r="F44" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -7534,8 +8259,11 @@
       <c r="F45" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -7550,8 +8278,11 @@
       <c r="F46" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -7566,8 +8297,11 @@
       <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -7582,8 +8316,11 @@
       <c r="F48" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -7598,8 +8335,11 @@
       <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -7614,8 +8354,11 @@
       <c r="F50" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -7630,8 +8373,11 @@
       <c r="F51" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -7646,8 +8392,11 @@
       <c r="F52" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -7662,8 +8411,11 @@
       <c r="F53" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -7678,8 +8430,11 @@
       <c r="F54" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -7694,8 +8449,11 @@
       <c r="F55" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -7710,8 +8468,11 @@
       <c r="F56" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -7726,8 +8487,11 @@
       <c r="F57" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -7742,8 +8506,11 @@
       <c r="F58" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -7758,8 +8525,11 @@
       <c r="F59" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -7774,8 +8544,11 @@
       <c r="F60" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -7790,8 +8563,11 @@
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -7806,8 +8582,11 @@
       <c r="F62" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -7822,8 +8601,11 @@
       <c r="F63" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -7838,8 +8620,11 @@
       <c r="F64" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -7854,8 +8639,11 @@
       <c r="F65" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7</v>
       </c>
@@ -7870,8 +8658,11 @@
       <c r="F66" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7</v>
       </c>
@@ -7886,8 +8677,11 @@
       <c r="F67" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -7902,8 +8696,11 @@
       <c r="F68" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7</v>
       </c>
@@ -7918,8 +8715,11 @@
       <c r="F69" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -7934,8 +8734,11 @@
       <c r="F70" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -7950,8 +8753,11 @@
       <c r="F71" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -7966,8 +8772,11 @@
       <c r="F72" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
@@ -7982,8 +8791,11 @@
       <c r="F73" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -7998,8 +8810,11 @@
       <c r="F74" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8</v>
       </c>
@@ -8014,8 +8829,11 @@
       <c r="F75" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8</v>
       </c>
@@ -8030,8 +8848,11 @@
       <c r="F76" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
@@ -8046,8 +8867,11 @@
       <c r="F77" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8</v>
       </c>
@@ -8062,8 +8886,11 @@
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
@@ -8078,8 +8905,11 @@
       <c r="F79" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>8</v>
       </c>
@@ -8094,8 +8924,11 @@
       <c r="F80" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8</v>
       </c>
@@ -8110,13 +8943,16 @@
       <c r="F81" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -8124,15 +8960,18 @@
         <v>29</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
@@ -8140,15 +8979,18 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
@@ -8156,15 +8998,18 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>29</v>
@@ -8172,15 +9017,18 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
@@ -8188,15 +9036,18 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -8204,15 +9055,18 @@
         <v>29</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
@@ -8220,15 +9074,18 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -8236,15 +9093,18 @@
         <v>29</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
@@ -8252,15 +9112,18 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
@@ -8268,10 +9131,13 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10</v>
       </c>
@@ -8286,8 +9152,11 @@
       <c r="F92" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>10</v>
       </c>
@@ -8302,8 +9171,11 @@
       <c r="F93" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10</v>
       </c>
@@ -8318,8 +9190,11 @@
       <c r="F94" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10</v>
       </c>
@@ -8334,8 +9209,11 @@
       <c r="F95" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10</v>
       </c>
@@ -8350,8 +9228,11 @@
       <c r="F96" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -8366,8 +9247,11 @@
       <c r="F97" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10</v>
       </c>
@@ -8382,8 +9266,11 @@
       <c r="F98" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10</v>
       </c>
@@ -8398,8 +9285,11 @@
       <c r="F99" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10</v>
       </c>
@@ -8414,8 +9304,11 @@
       <c r="F100" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
@@ -8430,8 +9323,11 @@
       <c r="F101" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
@@ -8446,8 +9342,11 @@
       <c r="F102" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>11</v>
       </c>
@@ -8462,8 +9361,11 @@
       <c r="F103" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11</v>
       </c>
@@ -8478,8 +9380,11 @@
       <c r="F104" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>11</v>
       </c>
@@ -8494,8 +9399,11 @@
       <c r="F105" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>11</v>
       </c>
@@ -8510,8 +9418,11 @@
       <c r="F106" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>11</v>
       </c>
@@ -8526,8 +9437,11 @@
       <c r="F107" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11</v>
       </c>
@@ -8542,8 +9456,11 @@
       <c r="F108" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>11</v>
       </c>
@@ -8558,8 +9475,11 @@
       <c r="F109" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11</v>
       </c>
@@ -8574,8 +9494,11 @@
       <c r="F110" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>11</v>
       </c>
@@ -8590,8 +9513,11 @@
       <c r="F111" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>12</v>
       </c>
@@ -8606,8 +9532,11 @@
       <c r="F112" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>12</v>
       </c>
@@ -8622,8 +9551,11 @@
       <c r="F113" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>12</v>
       </c>
@@ -8638,8 +9570,11 @@
       <c r="F114" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>12</v>
       </c>
@@ -8654,8 +9589,11 @@
       <c r="F115" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>12</v>
       </c>
@@ -8670,8 +9608,11 @@
       <c r="F116" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>12</v>
       </c>
@@ -8686,8 +9627,11 @@
       <c r="F117" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>12</v>
       </c>
@@ -8702,8 +9646,11 @@
       <c r="F118" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>12</v>
       </c>
@@ -8718,8 +9665,11 @@
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12</v>
       </c>
@@ -8734,8 +9684,11 @@
       <c r="F120" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12</v>
       </c>
@@ -8750,8 +9703,11 @@
       <c r="F121" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>13</v>
       </c>
@@ -8766,8 +9722,11 @@
       <c r="F122" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>13</v>
       </c>
@@ -8782,8 +9741,11 @@
       <c r="F123" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>13</v>
       </c>
@@ -8798,8 +9760,11 @@
       <c r="F124" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>13</v>
       </c>
@@ -8814,8 +9779,11 @@
       <c r="F125" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>13</v>
       </c>
@@ -8830,8 +9798,11 @@
       <c r="F126" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>13</v>
       </c>
@@ -8846,8 +9817,11 @@
       <c r="F127" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>13</v>
       </c>
@@ -8862,8 +9836,11 @@
       <c r="F128" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>13</v>
       </c>
@@ -8878,8 +9855,11 @@
       <c r="F129" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>13</v>
       </c>
@@ -8894,8 +9874,11 @@
       <c r="F130" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>13</v>
       </c>
@@ -8910,8 +9893,11 @@
       <c r="F131" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -8926,8 +9912,11 @@
       <c r="F132" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>14</v>
       </c>
@@ -8942,8 +9931,11 @@
       <c r="F133" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>14</v>
       </c>
@@ -8958,8 +9950,11 @@
       <c r="F134" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>14</v>
       </c>
@@ -8974,8 +9969,11 @@
       <c r="F135" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>14</v>
       </c>
@@ -8990,8 +9988,11 @@
       <c r="F136" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
       </c>
@@ -9006,8 +10007,11 @@
       <c r="F137" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>14</v>
       </c>
@@ -9022,8 +10026,11 @@
       <c r="F138" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14</v>
       </c>
@@ -9038,8 +10045,11 @@
       <c r="F139" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14</v>
       </c>
@@ -9054,8 +10064,11 @@
       <c r="F140" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>14</v>
       </c>
@@ -9070,8 +10083,11 @@
       <c r="F141" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>15</v>
       </c>
@@ -9086,8 +10102,11 @@
       <c r="F142" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>15</v>
       </c>
@@ -9102,8 +10121,11 @@
       <c r="F143" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>15</v>
       </c>
@@ -9118,8 +10140,11 @@
       <c r="F144" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>15</v>
       </c>
@@ -9134,8 +10159,11 @@
       <c r="F145" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>15</v>
       </c>
@@ -9150,8 +10178,11 @@
       <c r="F146" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>15</v>
       </c>
@@ -9166,8 +10197,11 @@
       <c r="F147" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>15</v>
       </c>
@@ -9182,8 +10216,11 @@
       <c r="F148" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>15</v>
       </c>
@@ -9198,8 +10235,11 @@
       <c r="F149" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>15</v>
       </c>
@@ -9214,8 +10254,11 @@
       <c r="F150" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>15</v>
       </c>
@@ -9230,8 +10273,11 @@
       <c r="F151" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>16</v>
       </c>
@@ -9246,8 +10292,11 @@
       <c r="F152" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>16</v>
       </c>
@@ -9262,8 +10311,11 @@
       <c r="F153" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>16</v>
       </c>
@@ -9278,8 +10330,11 @@
       <c r="F154" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>16</v>
       </c>
@@ -9294,8 +10349,11 @@
       <c r="F155" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>16</v>
       </c>
@@ -9310,8 +10368,11 @@
       <c r="F156" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>16</v>
       </c>
@@ -9326,8 +10387,11 @@
       <c r="F157" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>16</v>
       </c>
@@ -9342,8 +10406,11 @@
       <c r="F158" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>16</v>
       </c>
@@ -9358,8 +10425,11 @@
       <c r="F159" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>16</v>
       </c>
@@ -9374,8 +10444,11 @@
       <c r="F160" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>16</v>
       </c>
@@ -9390,8 +10463,11 @@
       <c r="F161" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>17</v>
       </c>
@@ -9406,8 +10482,11 @@
       <c r="F162" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>17</v>
       </c>
@@ -9422,8 +10501,11 @@
       <c r="F163" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>17</v>
       </c>
@@ -9438,8 +10520,11 @@
       <c r="F164" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>17</v>
       </c>
@@ -9454,8 +10539,11 @@
       <c r="F165" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>17</v>
       </c>
@@ -9470,8 +10558,11 @@
       <c r="F166" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>17</v>
       </c>
@@ -9486,8 +10577,11 @@
       <c r="F167" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>17</v>
       </c>
@@ -9502,8 +10596,11 @@
       <c r="F168" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>17</v>
       </c>
@@ -9518,8 +10615,11 @@
       <c r="F169" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>17</v>
       </c>
@@ -9534,8 +10634,11 @@
       <c r="F170" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>17</v>
       </c>
@@ -9550,8 +10653,11 @@
       <c r="F171" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>18</v>
       </c>
@@ -9566,8 +10672,11 @@
       <c r="F172" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>18</v>
       </c>
@@ -9582,8 +10691,11 @@
       <c r="F173" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>18</v>
       </c>
@@ -9598,8 +10710,11 @@
       <c r="F174" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>18</v>
       </c>
@@ -9614,8 +10729,11 @@
       <c r="F175" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>18</v>
       </c>
@@ -9630,8 +10748,11 @@
       <c r="F176" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>18</v>
       </c>
@@ -9646,8 +10767,11 @@
       <c r="F177" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>18</v>
       </c>
@@ -9662,8 +10786,11 @@
       <c r="F178" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>18</v>
       </c>
@@ -9678,8 +10805,11 @@
       <c r="F179" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>18</v>
       </c>
@@ -9694,8 +10824,11 @@
       <c r="F180" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>18</v>
       </c>
@@ -9710,8 +10843,11 @@
       <c r="F181" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>19</v>
       </c>
@@ -9726,8 +10862,11 @@
       <c r="F182" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>19</v>
       </c>
@@ -9742,8 +10881,11 @@
       <c r="F183" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>19</v>
       </c>
@@ -9758,8 +10900,11 @@
       <c r="F184" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>19</v>
       </c>
@@ -9774,8 +10919,11 @@
       <c r="F185" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>19</v>
       </c>
@@ -9790,8 +10938,11 @@
       <c r="F186" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>19</v>
       </c>
@@ -9806,8 +10957,11 @@
       <c r="F187" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>19</v>
       </c>
@@ -9822,8 +10976,11 @@
       <c r="F188" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>19</v>
       </c>
@@ -9838,8 +10995,11 @@
       <c r="F189" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>19</v>
       </c>
@@ -9854,8 +11014,11 @@
       <c r="F190" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>19</v>
       </c>
@@ -9869,6 +11032,9 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
